--- a/SuRGE_Sharepoint/data/CIN/CH4_076_Eureka/dataSheets/surgeData076.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_076_Eureka/dataSheets/surgeData076.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_076_Eureka/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_076_Eureka/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="531" documentId="8_{E29DA374-CBEC-4C77-9126-EE40E21DBBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAC098CF-268C-4773-8AD5-1C7505ED3EC2}"/>
+  <xr:revisionPtr revIDLastSave="532" documentId="8_{E29DA374-CBEC-4C77-9126-EE40E21DBBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEA1CEF7-2EDA-4204-A6EE-2B8BC3CE0649}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1295,6 +1295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1316,7 +1317,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1376,9 +1376,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1416,7 +1416,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1522,7 +1522,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1664,7 +1664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1676,173 +1676,170 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BT3" sqref="BT3:BZ22"/>
+      <selection pane="topRight" activeCell="BT16" sqref="BT16:BV16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.54296875" customWidth="1"/>
-    <col min="29" max="29" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" customWidth="1"/>
+    <col min="29" max="29" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6" customWidth="1"/>
     <col min="31" max="31" width="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="18" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="8" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.453125" customWidth="1"/>
-    <col min="50" max="50" width="6.81640625" customWidth="1"/>
-    <col min="51" max="51" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.44140625" customWidth="1"/>
+    <col min="50" max="50" width="6.77734375" customWidth="1"/>
+    <col min="51" max="51" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="10" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="14" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="20.90625" customWidth="1"/>
+    <col min="63" max="63" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="68" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="32" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="33" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="33"/>
-      <c r="BM1" s="33"/>
-      <c r="BN1" s="33"/>
-      <c r="BO1" s="33"/>
-      <c r="BP1" s="33"/>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="34" t="s">
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="34"/>
+      <c r="BS1" s="34"/>
+      <c r="BT1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="BU1" s="34"/>
-      <c r="BV1" s="34"/>
-      <c r="BW1" s="29" t="s">
+      <c r="BU1" s="35"/>
+      <c r="BV1" s="35"/>
+      <c r="BW1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BX1" s="29"/>
-      <c r="BY1" s="29"/>
-      <c r="BZ1" s="29"/>
-    </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BX1" s="30"/>
+      <c r="BY1" s="30"/>
+      <c r="BZ1" s="30"/>
+    </row>
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
@@ -2078,7 +2075,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>188</v>
       </c>
@@ -2178,15 +2175,6 @@
       <c r="BE3">
         <v>0.7</v>
       </c>
-      <c r="BT3" t="s">
-        <v>207</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>208</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>209</v>
-      </c>
       <c r="BW3">
         <v>2.0627</v>
       </c>
@@ -2200,7 +2188,7 @@
         <v>0.74831018518518511</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>188</v>
       </c>
@@ -2301,7 +2289,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>188</v>
       </c>
@@ -2402,7 +2390,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>188</v>
       </c>
@@ -2503,7 +2491,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>188</v>
       </c>
@@ -2604,7 +2592,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>188</v>
       </c>
@@ -2702,7 +2690,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>188</v>
       </c>
@@ -2803,7 +2791,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>188</v>
       </c>
@@ -2904,7 +2892,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>188</v>
       </c>
@@ -3005,7 +2993,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>188</v>
       </c>
@@ -3106,7 +3094,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>188</v>
       </c>
@@ -3207,7 +3195,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>188</v>
       </c>
@@ -3305,7 +3293,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>188</v>
       </c>
@@ -3403,7 +3391,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>188</v>
       </c>
@@ -3503,8 +3491,17 @@
       <c r="BE16">
         <v>5.95</v>
       </c>
-    </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="BT16" t="s">
+        <v>207</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>208</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>188</v>
       </c>
@@ -3625,15 +3622,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="26"/>
+    <col min="1" max="1" width="17.77734375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.21875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -3644,7 +3641,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3655,7 +3652,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3666,7 +3663,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3677,7 +3674,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3688,7 +3685,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3699,7 +3696,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3710,7 +3707,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3721,7 +3718,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3732,7 +3729,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3743,7 +3740,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3754,18 +3751,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3776,7 +3773,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3785,7 +3782,7 @@
       </c>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3796,7 +3793,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3805,7 +3802,7 @@
       </c>
       <c r="C16"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3816,7 +3813,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3825,7 +3822,7 @@
       </c>
       <c r="C18"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -3836,7 +3833,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -3845,7 +3842,7 @@
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3856,7 +3853,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -3867,7 +3864,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -3878,7 +3875,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3889,7 +3886,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3900,7 +3897,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -3911,7 +3908,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -3920,7 +3917,7 @@
       </c>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3931,7 +3928,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3942,7 +3939,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3953,7 +3950,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3964,7 +3961,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3975,7 +3972,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3986,7 +3983,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -3997,7 +3994,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>191</v>
       </c>
@@ -4008,7 +4005,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4019,7 +4016,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4028,7 +4025,7 @@
       </c>
       <c r="C37"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4037,7 +4034,7 @@
       </c>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4046,7 +4043,7 @@
       </c>
       <c r="C39"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4055,7 +4052,7 @@
       </c>
       <c r="C40"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4064,7 +4061,7 @@
       </c>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>212</v>
       </c>
@@ -4073,7 +4070,7 @@
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4082,7 +4079,7 @@
       </c>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4091,7 +4088,7 @@
       </c>
       <c r="C44"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -4100,7 +4097,7 @@
       </c>
       <c r="C45"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -4109,7 +4106,7 @@
       </c>
       <c r="C46"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4118,7 +4115,7 @@
       </c>
       <c r="C47"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -4127,7 +4124,7 @@
       </c>
       <c r="C48"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>213</v>
       </c>
@@ -4136,7 +4133,7 @@
       </c>
       <c r="C49"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -4145,7 +4142,7 @@
       </c>
       <c r="C50"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -4156,7 +4153,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -4167,7 +4164,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -4178,7 +4175,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -4189,7 +4186,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -4200,7 +4197,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -4211,7 +4208,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>192</v>
       </c>
@@ -4222,7 +4219,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -4233,7 +4230,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -4242,7 +4239,7 @@
       </c>
       <c r="C59"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -4251,7 +4248,7 @@
       </c>
       <c r="C60"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -4260,7 +4257,7 @@
       </c>
       <c r="C61"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -4269,7 +4266,7 @@
       </c>
       <c r="C62"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -4278,7 +4275,7 @@
       </c>
       <c r="C63"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>214</v>
       </c>
@@ -4287,7 +4284,7 @@
       </c>
       <c r="C64"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -4296,7 +4293,7 @@
       </c>
       <c r="C65"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -4305,7 +4302,7 @@
       </c>
       <c r="C66"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -4314,7 +4311,7 @@
       </c>
       <c r="C67"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -4323,7 +4320,7 @@
       </c>
       <c r="C68"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -4332,7 +4329,7 @@
       </c>
       <c r="C69"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -4341,7 +4338,7 @@
       </c>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -4350,7 +4347,7 @@
       </c>
       <c r="C71"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -4359,7 +4356,7 @@
       </c>
       <c r="C72"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -4370,7 +4367,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -4381,7 +4378,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -4392,7 +4389,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -4403,7 +4400,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -4414,7 +4411,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -4425,7 +4422,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -4449,33 +4446,33 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="24"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="24"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4509,7 +4506,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>193</v>
       </c>
@@ -4538,7 +4535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>193</v>
       </c>
@@ -4567,7 +4564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>193</v>
       </c>
@@ -4596,7 +4593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>193</v>
       </c>
@@ -4625,7 +4622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>193</v>
       </c>
@@ -4654,7 +4651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>193</v>
       </c>
@@ -4701,14 +4698,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -4719,7 +4716,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4730,7 +4727,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4741,7 +4738,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>154</v>
       </c>
@@ -4752,7 +4749,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>155</v>
       </c>
@@ -4763,7 +4760,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>156</v>
       </c>
@@ -4774,7 +4771,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>157</v>
       </c>
@@ -4782,7 +4779,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>158</v>
       </c>
@@ -4793,7 +4790,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>159</v>
       </c>
@@ -4804,7 +4801,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>160</v>
       </c>
@@ -4815,7 +4812,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>161</v>
       </c>
@@ -4832,6 +4829,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9110ddba8137efcfc9b628571238300">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bebf8e6f5f0ff6ff908ec6e1ee4006f7" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5296,20 +5307,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5353,7 +5350,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F05F9E-0D71-4B7B-BD13-963BA82793AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5365,9 +5366,24 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F05F9E-0D71-4B7B-BD13-963BA82793AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
